--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H2">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I2">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J2">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N2">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O2">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P2">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q2">
-        <v>0.1922665802797778</v>
+        <v>0.5306263586106666</v>
       </c>
       <c r="R2">
-        <v>1.730399222518</v>
+        <v>4.775637227496</v>
       </c>
       <c r="S2">
-        <v>0.004649215097357209</v>
+        <v>0.02322831857163527</v>
       </c>
       <c r="T2">
-        <v>0.004649215097357208</v>
+        <v>0.02322831857163527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H3">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I3">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J3">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.051827</v>
       </c>
       <c r="O3">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P3">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q3">
-        <v>0.007846135598444444</v>
+        <v>0.05080654940422222</v>
       </c>
       <c r="R3">
-        <v>0.070615220386</v>
+        <v>0.457258944638</v>
       </c>
       <c r="S3">
-        <v>0.0001897280953721549</v>
+        <v>0.002224071035929644</v>
       </c>
       <c r="T3">
-        <v>0.0001897280953721548</v>
+        <v>0.002224071035929644</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H4">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I4">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J4">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N4">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O4">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P4">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q4">
-        <v>0.02017904297088889</v>
+        <v>0.2076189687184444</v>
       </c>
       <c r="R4">
-        <v>0.181611386738</v>
+        <v>1.868570718466</v>
       </c>
       <c r="S4">
-        <v>0.0004879512138508866</v>
+        <v>0.009088578938169358</v>
       </c>
       <c r="T4">
-        <v>0.0004879512138508865</v>
+        <v>0.009088578938169358</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>229.479935</v>
       </c>
       <c r="I5">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J5">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N5">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O5">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P5">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q5">
-        <v>32.38219410332611</v>
+        <v>13.80153523739333</v>
       </c>
       <c r="R5">
-        <v>291.439746929935</v>
+        <v>124.21381713654</v>
       </c>
       <c r="S5">
-        <v>0.7830366852713512</v>
+        <v>0.6041660993080145</v>
       </c>
       <c r="T5">
-        <v>0.7830366852713511</v>
+        <v>0.6041660993080146</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>229.479935</v>
       </c>
       <c r="I6">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J6">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,10 +815,10 @@
         <v>0.051827</v>
       </c>
       <c r="O6">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P6">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q6">
         <v>1.321472954582778</v>
@@ -827,10 +827,10 @@
         <v>11.893256591245</v>
       </c>
       <c r="S6">
-        <v>0.03195465380543663</v>
+        <v>0.05784785145845151</v>
       </c>
       <c r="T6">
-        <v>0.03195465380543662</v>
+        <v>0.05784785145845152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>229.479935</v>
       </c>
       <c r="I7">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J7">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N7">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O7">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P7">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q7">
-        <v>3.398623335120556</v>
+        <v>5.400147328190555</v>
       </c>
       <c r="R7">
-        <v>30.58761001608501</v>
+        <v>48.601325953715</v>
       </c>
       <c r="S7">
-        <v>0.08218240994810531</v>
+        <v>0.2363929730166513</v>
       </c>
       <c r="T7">
-        <v>0.0821824099481053</v>
+        <v>0.2363929730166514</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H8">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I8">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J8">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N8">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O8">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P8">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q8">
-        <v>0.5471819064071112</v>
+        <v>0.1808188671906667</v>
       </c>
       <c r="R8">
-        <v>4.924637157664</v>
+        <v>1.627369804716</v>
       </c>
       <c r="S8">
-        <v>0.01323145383127309</v>
+        <v>0.007915396931777265</v>
       </c>
       <c r="T8">
-        <v>0.01323145383127308</v>
+        <v>0.007915396931777266</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H9">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I9">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J9">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.051827</v>
       </c>
       <c r="O9">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P9">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q9">
-        <v>0.02232974356977778</v>
+        <v>0.01731309151922222</v>
       </c>
       <c r="R9">
-        <v>0.200967692128</v>
+        <v>0.155817823673</v>
       </c>
       <c r="S9">
-        <v>0.0005399574942959811</v>
+        <v>0.0007578854663785005</v>
       </c>
       <c r="T9">
-        <v>0.000539957494295981</v>
+        <v>0.0007578854663785006</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H10">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I10">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J10">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N10">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O10">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P10">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q10">
-        <v>0.05742863469155557</v>
+        <v>0.07074926852344443</v>
       </c>
       <c r="R10">
-        <v>0.5168577122240001</v>
+        <v>0.636743416711</v>
       </c>
       <c r="S10">
-        <v>0.00138868686924201</v>
+        <v>0.003097069192483383</v>
       </c>
       <c r="T10">
-        <v>0.001388686869242009</v>
+        <v>0.003097069192483383</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H11">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I11">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J11">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N11">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O11">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P11">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q11">
-        <v>2.446693050972889</v>
+        <v>0.4251824912733334</v>
       </c>
       <c r="R11">
-        <v>22.020237458756</v>
+        <v>3.82664242146</v>
       </c>
       <c r="S11">
-        <v>0.05916369997650885</v>
+        <v>0.01861248352652036</v>
       </c>
       <c r="T11">
-        <v>0.05916369997650883</v>
+        <v>0.01861248352652036</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H12">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I12">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J12">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.051827</v>
       </c>
       <c r="O12">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P12">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q12">
-        <v>0.09984618969022221</v>
+        <v>0.04071048280611111</v>
       </c>
       <c r="R12">
-        <v>0.898615707212</v>
+        <v>0.366394345255</v>
       </c>
       <c r="S12">
-        <v>0.002414389499443326</v>
+        <v>0.001782112871854647</v>
       </c>
       <c r="T12">
-        <v>0.002414389499443326</v>
+        <v>0.001782112871854647</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H13">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I13">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J13">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N13">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O13">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P13">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q13">
-        <v>0.2567889028884445</v>
+        <v>0.1663617890872222</v>
       </c>
       <c r="R13">
-        <v>2.311100125996</v>
+        <v>1.497256101785</v>
       </c>
       <c r="S13">
-        <v>0.006209435058373058</v>
+        <v>0.007282534258537516</v>
       </c>
       <c r="T13">
-        <v>0.006209435058373057</v>
+        <v>0.007282534258537517</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2778016666666667</v>
+        <v>0.5156633333333334</v>
       </c>
       <c r="H14">
-        <v>0.833405</v>
+        <v>1.54699</v>
       </c>
       <c r="I14">
-        <v>0.003258276538670325</v>
+        <v>0.006056418514425867</v>
       </c>
       <c r="J14">
-        <v>0.003258276538670324</v>
+        <v>0.006056418514425868</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N14">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O14">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P14">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q14">
-        <v>0.1176027981561111</v>
+        <v>0.09304010390666667</v>
       </c>
       <c r="R14">
-        <v>1.058425183405</v>
+        <v>0.83736093516</v>
       </c>
       <c r="S14">
-        <v>0.002843763611352646</v>
+        <v>0.004072856801046703</v>
       </c>
       <c r="T14">
-        <v>0.002843763611352645</v>
+        <v>0.004072856801046703</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2778016666666667</v>
+        <v>0.5156633333333334</v>
       </c>
       <c r="H15">
-        <v>0.833405</v>
+        <v>1.54699</v>
       </c>
       <c r="I15">
-        <v>0.003258276538670325</v>
+        <v>0.006056418514425867</v>
       </c>
       <c r="J15">
-        <v>0.003258276538670324</v>
+        <v>0.006056418514425868</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.051827</v>
       </c>
       <c r="O15">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P15">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q15">
-        <v>0.004799208992777778</v>
+        <v>0.008908427858888889</v>
       </c>
       <c r="R15">
-        <v>0.043192880935</v>
+        <v>0.08017585073</v>
       </c>
       <c r="S15">
-        <v>0.0001160500949885658</v>
+        <v>0.0003899689431570995</v>
       </c>
       <c r="T15">
-        <v>0.0001160500949885658</v>
+        <v>0.0003899689431570996</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2778016666666667</v>
+        <v>0.5156633333333334</v>
       </c>
       <c r="H16">
-        <v>0.833405</v>
+        <v>1.54699</v>
       </c>
       <c r="I16">
-        <v>0.003258276538670325</v>
+        <v>0.006056418514425867</v>
       </c>
       <c r="J16">
-        <v>0.003258276538670324</v>
+        <v>0.006056418514425868</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N16">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O16">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P16">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q16">
-        <v>0.01234282065055556</v>
+        <v>0.03640394056777778</v>
       </c>
       <c r="R16">
-        <v>0.111085385855</v>
+        <v>0.32763546511</v>
       </c>
       <c r="S16">
-        <v>0.0002984628323291128</v>
+        <v>0.001593592770222065</v>
       </c>
       <c r="T16">
-        <v>0.0002984628323291127</v>
+        <v>0.001593592770222065</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9628836666666668</v>
+        <v>1.834685</v>
       </c>
       <c r="H17">
-        <v>2.888651</v>
+        <v>5.504055</v>
       </c>
       <c r="I17">
-        <v>0.01129345730072003</v>
+        <v>0.02154820690917088</v>
       </c>
       <c r="J17">
-        <v>0.01129345730072002</v>
+        <v>0.02154820690917089</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N17">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O17">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P17">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q17">
-        <v>0.4076210731834445</v>
+        <v>0.33102854518</v>
       </c>
       <c r="R17">
-        <v>3.668589658651</v>
+        <v>2.97925690662</v>
       </c>
       <c r="S17">
-        <v>0.009856721041627339</v>
+        <v>0.01449086796946658</v>
       </c>
       <c r="T17">
-        <v>0.009856721041627336</v>
+        <v>0.01449086796946659</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9628836666666668</v>
+        <v>1.834685</v>
       </c>
       <c r="H18">
-        <v>2.888651</v>
+        <v>5.504055</v>
       </c>
       <c r="I18">
-        <v>0.01129345730072003</v>
+        <v>0.02154820690917088</v>
       </c>
       <c r="J18">
-        <v>0.01129345730072002</v>
+        <v>0.02154820690917089</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1559,22 +1559,22 @@
         <v>0.051827</v>
       </c>
       <c r="O18">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P18">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q18">
-        <v>0.01663445726411111</v>
+        <v>0.03169540649833334</v>
       </c>
       <c r="R18">
-        <v>0.149710115377</v>
+        <v>0.285258658485</v>
       </c>
       <c r="S18">
-        <v>0.0004022392749489332</v>
+        <v>0.001387475362755124</v>
       </c>
       <c r="T18">
-        <v>0.0004022392749489331</v>
+        <v>0.001387475362755125</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.834685</v>
+      </c>
+      <c r="H19">
+        <v>5.504055</v>
+      </c>
+      <c r="I19">
+        <v>0.02154820690917088</v>
+      </c>
+      <c r="J19">
+        <v>0.02154820690917089</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="L19">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.9628836666666668</v>
-      </c>
-      <c r="H19">
-        <v>2.888651</v>
-      </c>
-      <c r="I19">
-        <v>0.01129345730072003</v>
-      </c>
-      <c r="J19">
-        <v>0.01129345730072002</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M19">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N19">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O19">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P19">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q19">
-        <v>0.04278124227122224</v>
+        <v>0.1295220338216667</v>
       </c>
       <c r="R19">
-        <v>0.3850311804410001</v>
+        <v>1.165698304395</v>
       </c>
       <c r="S19">
-        <v>0.001034496984143753</v>
+        <v>0.005669863576949177</v>
       </c>
       <c r="T19">
-        <v>0.001034496984143752</v>
+        <v>0.005669863576949178</v>
       </c>
     </row>
   </sheetData>
